--- a/Market.xlsx
+++ b/Market.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
   <si>
     <t>Нож</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Паторны денег стоют</t>
+  </si>
+  <si>
+    <t>final</t>
   </si>
 </sst>
 </file>
@@ -590,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +691,9 @@
       <c r="U2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="2"/>
+      <c r="V2" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1450,24 +1455,56 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -1476,55 +1513,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1793,23 +1782,27 @@
       <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
